--- a/src/main/resources/user.xlsx
+++ b/src/main/resources/user.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
